--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_001.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_001.xlsx
@@ -38,25 +38,25 @@
     <t>Atto di matrimonio</t>
   </si>
   <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Atto di matrimonio straniero, tradotto e legalizzato</t>
+  </si>
+  <si>
+    <t>Certificato di residenza</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>121-ter</t>
+  </si>
+  <si>
     <t>SI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Atto di matrimonio straniero, tradotto e legalizzato</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>Certificato di residenza</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>121-ter</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -402,7 +402,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -410,34 +410,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F78"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="18.28125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="46.7890625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.56640625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="35.6328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="46.78515625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="35.62890625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.78515625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="27.32421875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -488,7 +489,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
@@ -505,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
@@ -522,13 +523,13 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
@@ -568,7 +569,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>17</v>
@@ -588,7 +589,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>17</v>
@@ -608,7 +609,7 @@
         <v>21</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>17</v>
@@ -628,7 +629,7 @@
         <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>17</v>
@@ -648,7 +649,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>27</v>
@@ -668,7 +669,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>27</v>
@@ -688,7 +689,7 @@
         <v>31</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>27</v>
@@ -708,7 +709,7 @@
         <v>33</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>27</v>
@@ -728,7 +729,7 @@
         <v>35</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>27</v>
@@ -748,7 +749,7 @@
         <v>37</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>27</v>
@@ -768,7 +769,7 @@
         <v>39</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>27</v>
@@ -788,7 +789,7 @@
         <v>40</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>27</v>
@@ -808,7 +809,7 @@
         <v>42</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>27</v>
@@ -828,7 +829,7 @@
         <v>43</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>27</v>
@@ -848,7 +849,7 @@
         <v>45</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>27</v>
@@ -857,7 +858,7 @@
         <v>46</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
@@ -868,7 +869,7 @@
         <v>47</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>27</v>
@@ -877,7 +878,7 @@
         <v>48</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
@@ -888,7 +889,7 @@
         <v>50</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>51</v>
@@ -908,7 +909,7 @@
         <v>53</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>51</v>
@@ -928,7 +929,7 @@
         <v>55</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>51</v>
@@ -937,7 +938,7 @@
         <v>56</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26">
@@ -948,7 +949,7 @@
         <v>57</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>51</v>
@@ -968,7 +969,7 @@
         <v>60</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>61</v>
@@ -977,7 +978,7 @@
         <v>62</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28">
@@ -988,7 +989,7 @@
         <v>63</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>61</v>
@@ -1008,7 +1009,7 @@
         <v>65</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>61</v>
@@ -1028,7 +1029,7 @@
         <v>67</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>61</v>
@@ -1048,7 +1049,7 @@
         <v>69</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>61</v>
@@ -1068,7 +1069,7 @@
         <v>71</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>61</v>
@@ -1088,7 +1089,7 @@
         <v>73</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>61</v>
@@ -1108,7 +1109,7 @@
         <v>75</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>61</v>
@@ -1128,7 +1129,7 @@
         <v>77</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>61</v>
@@ -1148,7 +1149,7 @@
         <v>79</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>61</v>
@@ -1168,7 +1169,7 @@
         <v>81</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>61</v>
@@ -1188,7 +1189,7 @@
         <v>83</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>61</v>
@@ -1208,7 +1209,7 @@
         <v>85</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>61</v>
@@ -1228,7 +1229,7 @@
         <v>87</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>61</v>
@@ -1248,7 +1249,7 @@
         <v>89</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>61</v>
@@ -1268,7 +1269,7 @@
         <v>91</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>61</v>
@@ -1288,7 +1289,7 @@
         <v>93</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>61</v>
@@ -1308,7 +1309,7 @@
         <v>95</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>61</v>
@@ -1328,7 +1329,7 @@
         <v>97</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>61</v>
@@ -1348,7 +1349,7 @@
         <v>99</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>61</v>
@@ -1368,7 +1369,7 @@
         <v>101</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>61</v>
@@ -1388,7 +1389,7 @@
         <v>103</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>61</v>
@@ -1408,7 +1409,7 @@
         <v>60</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>106</v>
@@ -1417,7 +1418,7 @@
         <v>62</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50">
@@ -1428,7 +1429,7 @@
         <v>63</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>106</v>
@@ -1448,7 +1449,7 @@
         <v>65</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>106</v>
@@ -1468,7 +1469,7 @@
         <v>67</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>106</v>
@@ -1488,7 +1489,7 @@
         <v>69</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>106</v>
@@ -1508,7 +1509,7 @@
         <v>71</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>106</v>
@@ -1528,7 +1529,7 @@
         <v>73</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>106</v>
@@ -1548,7 +1549,7 @@
         <v>75</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>106</v>
@@ -1568,7 +1569,7 @@
         <v>77</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>106</v>
@@ -1588,7 +1589,7 @@
         <v>79</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>106</v>
@@ -1608,7 +1609,7 @@
         <v>81</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>106</v>
@@ -1628,7 +1629,7 @@
         <v>83</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>106</v>
@@ -1648,7 +1649,7 @@
         <v>85</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>106</v>
@@ -1668,7 +1669,7 @@
         <v>87</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>106</v>
@@ -1688,7 +1689,7 @@
         <v>89</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>106</v>
@@ -1708,7 +1709,7 @@
         <v>91</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>106</v>
@@ -1728,7 +1729,7 @@
         <v>93</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>106</v>
@@ -1748,7 +1749,7 @@
         <v>95</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>106</v>
@@ -1768,7 +1769,7 @@
         <v>97</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>106</v>
@@ -1788,7 +1789,7 @@
         <v>99</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>106</v>
@@ -1808,7 +1809,7 @@
         <v>101</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>106</v>
@@ -1828,7 +1829,7 @@
         <v>103</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>106</v>
@@ -1848,7 +1849,7 @@
         <v>60</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>108</v>
@@ -1857,7 +1858,7 @@
         <v>62</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72">
@@ -1868,7 +1869,7 @@
         <v>63</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>108</v>
@@ -1877,7 +1878,7 @@
         <v>64</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73">
@@ -1888,7 +1889,7 @@
         <v>109</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>51</v>
@@ -1908,7 +1909,7 @@
         <v>60</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>112</v>
@@ -1917,7 +1918,7 @@
         <v>62</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75">
@@ -1928,7 +1929,7 @@
         <v>63</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>112</v>
@@ -1937,7 +1938,7 @@
         <v>64</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76">
@@ -1948,7 +1949,7 @@
         <v>109</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>51</v>
@@ -1968,7 +1969,7 @@
         <v>115</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>51</v>
@@ -1988,7 +1989,7 @@
         <v>117</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>51</v>
@@ -2003,273 +2004,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100335471EDD44E874DAB7180C0493F4ECE" ma:contentTypeVersion="15" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="85959bbc5d8178fb694bc2caf2439f0b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1632c0f2-5623-49d0-b15e-384a6acdbfc6" xmlns:ns3="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f816d1a8925a644684fbd742cefb2ae2" ns2:_="" ns3:_="">
-    <xsd:import namespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6"/>
-    <xsd:import namespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tag immagine" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="febfd348-e945-4c65-a9c0-c21aadb6feb0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="22" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Condiviso con" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Condiviso con dettagli" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="21" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{63e8363e-42d2-43ab-ac90-61e1d0a52236}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1632c0f2-5623-49d0-b15e-384a6acdbfc6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09850EEC-2650-4085-824B-943C7A15A0BB}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95FD6982-2313-4368-9E76-675D260A9FCB}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96083115-A351-4EF0-98BE-FF52EFBFC2C9}"/>
 </file>
--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_001.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="123">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -71,6 +74,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -341,6 +347,9 @@
     <t>evento.separazione.avvocatoConiuge1</t>
   </si>
   <si>
+    <t>{evento.separazione.presenzaAvvocatoConiuge1,=,false}</t>
+  </si>
+  <si>
     <t>Foro di appartenenza</t>
   </si>
   <si>
@@ -351,6 +360,9 @@
   </si>
   <si>
     <t>evento.separazione.avvocatoConiuge2</t>
+  </si>
+  <si>
+    <t>{evento.separazione.presenzaAvvocatoConiuge2,=,false}</t>
   </si>
   <si>
     <t>foroAvvocatoConiuge2</t>
@@ -427,7 +439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G78"/>
+  <dimension ref="A1:H78"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -439,6 +451,7 @@
     <col min="4" max="4" width="35.62890625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.78515625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="51.6640625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -460,85 +473,100 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -560,1445 +588,1664 @@
       <c r="F6" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="E12" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="E24" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="E28" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="C70" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D70" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E70" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_001.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_001.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_001.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="124">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,34 +32,37 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Atto di matrimonio</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Atto di matrimonio straniero, tradotto e legalizzato</t>
+  </si>
+  <si>
+    <t>Certificato di residenza</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>121-ter</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Atto di matrimonio</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Atto di matrimonio straniero, tradotto e legalizzato</t>
-  </si>
-  <si>
-    <t>Certificato di residenza</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>121-ter</t>
-  </si>
-  <si>
-    <t>SI</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -589,1663 +592,1663 @@
         <v>5</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E76" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_001.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_001.xlsx
@@ -350,7 +350,7 @@
     <t>evento.separazione.avvocatoConiuge1</t>
   </si>
   <si>
-    <t>{evento.separazione.presenzaAvvocatoConiuge1,=,false}</t>
+    <t>evento.separazione.presenzaAvvocatoConiuge1,=,false</t>
   </si>
   <si>
     <t>Foro di appartenenza</t>
@@ -365,7 +365,7 @@
     <t>evento.separazione.avvocatoConiuge2</t>
   </si>
   <si>
-    <t>{evento.separazione.presenzaAvvocatoConiuge2,=,false}</t>
+    <t>evento.separazione.presenzaAvvocatoConiuge2,=,false</t>
   </si>
   <si>
     <t>foroAvvocatoConiuge2</t>
@@ -454,7 +454,7 @@
     <col min="4" max="4" width="35.62890625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.78515625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="51.6640625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="50.27734375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_001.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="127">
   <si>
     <t>Sezione</t>
   </si>
@@ -98,6 +98,18 @@
     <t>minuto</t>
   </si>
   <si>
+    <t>Dati Generali</t>
+  </si>
+  <si>
+    <t>Data Evento Matrimonio</t>
+  </si>
+  <si>
+    <t>evento.separazione</t>
+  </si>
+  <si>
+    <t>dataEventoMatrimonio</t>
+  </si>
+  <si>
     <t>Atto di Matrimonio</t>
   </si>
   <si>
@@ -174,9 +186,6 @@
   </si>
   <si>
     <t>Tipo accordo</t>
-  </si>
-  <si>
-    <t>evento.separazione</t>
   </si>
   <si>
     <t>tipoAccordo</t>
@@ -442,7 +451,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H78"/>
+  <dimension ref="A1:H79"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -695,7 +704,7 @@
         <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>30</v>
@@ -712,19 +721,19 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
@@ -735,19 +744,19 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="E13" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
@@ -758,19 +767,19 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
@@ -781,19 +790,19 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
@@ -804,19 +813,19 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
@@ -827,19 +836,19 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
@@ -850,19 +859,19 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
@@ -873,19 +882,19 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
@@ -896,22 +905,22 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>21</v>
@@ -919,22 +928,22 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>21</v>
@@ -942,19 +951,19 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>14</v>
@@ -965,22 +974,22 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>21</v>
@@ -988,19 +997,19 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
@@ -1011,22 +1020,22 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>21</v>
@@ -1034,22 +1043,22 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>21</v>
@@ -1057,22 +1066,22 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F27" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>21</v>
@@ -1080,22 +1089,22 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>21</v>
@@ -1103,19 +1112,19 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
@@ -1126,19 +1135,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
@@ -1149,19 +1158,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
@@ -1172,19 +1181,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
@@ -1195,19 +1204,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
@@ -1218,19 +1227,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1241,19 +1250,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1264,19 +1273,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1287,19 +1296,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1310,19 +1319,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1333,19 +1342,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1356,19 +1365,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1379,19 +1388,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1402,19 +1411,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1425,19 +1434,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1448,19 +1457,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1471,19 +1480,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1494,19 +1503,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1517,19 +1526,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1540,19 +1549,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1563,22 +1572,22 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>21</v>
@@ -1586,22 +1595,22 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>21</v>
@@ -1609,19 +1618,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1632,19 +1641,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1655,19 +1664,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1678,19 +1687,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1701,19 +1710,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1724,19 +1733,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1747,19 +1756,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1770,19 +1779,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1793,19 +1802,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1816,19 +1825,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1839,19 +1848,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1862,19 +1871,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1885,19 +1894,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1908,19 +1917,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1931,19 +1940,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1954,19 +1963,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1977,19 +1986,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2000,19 +2009,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2023,19 +2032,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2046,19 +2055,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2069,30 +2078,30 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F71" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>112</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>66</v>
@@ -2101,67 +2110,67 @@
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>66</v>
@@ -2170,53 +2179,53 @@
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>121</v>
@@ -2225,29 +2234,52 @@
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>21</v>
+        <v>120</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G78" s="2" t="s">
+      <c r="B79" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_001.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="144">
   <si>
     <t>Sezione</t>
   </si>
@@ -98,7 +98,7 @@
     <t>minuto</t>
   </si>
   <si>
-    <t>Dati Generali</t>
+    <t>Dati generali</t>
   </si>
   <si>
     <t>Data Evento Matrimonio</t>
@@ -108,6 +108,57 @@
   </si>
   <si>
     <t>dataEventoMatrimonio</t>
+  </si>
+  <si>
+    <t>Stato</t>
+  </si>
+  <si>
+    <t>evento.separazione.luogoEventoMatrimonio</t>
+  </si>
+  <si>
+    <t>idStato</t>
+  </si>
+  <si>
+    <t>Stato descrizione</t>
+  </si>
+  <si>
+    <t>nomeStato</t>
+  </si>
+  <si>
+    <t>Provincia</t>
+  </si>
+  <si>
+    <t>idProvincia</t>
+  </si>
+  <si>
+    <t>Provincia - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvincia</t>
+  </si>
+  <si>
+    <t>Comune</t>
+  </si>
+  <si>
+    <t>idComune</t>
+  </si>
+  <si>
+    <t>Comune - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComune</t>
+  </si>
+  <si>
+    <t>Comune estero</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
+  </si>
+  <si>
+    <t>Celebrato da</t>
+  </si>
+  <si>
+    <t>officianteEventoMatrimonio</t>
   </si>
   <si>
     <t>Atto di Matrimonio</t>
@@ -451,7 +502,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H79"/>
+  <dimension ref="A1:H87"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -460,8 +511,8 @@
     <col min="1" max="1" width="18.28125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="46.78515625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="35.62890625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="25.78515625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="41.06640625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="26.41796875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="50.27734375" customWidth="true" bestFit="true"/>
   </cols>
@@ -721,19 +772,19 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
@@ -744,22 +795,22 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="F13" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>21</v>
@@ -767,19 +818,19 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
@@ -790,19 +841,19 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
@@ -813,19 +864,19 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
@@ -836,22 +887,22 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F17" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>21</v>
@@ -859,22 +910,22 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="F18" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>21</v>
@@ -882,7 +933,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>47</v>
@@ -891,7 +942,7 @@
         <v>15</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>48</v>
@@ -905,22 +956,22 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>21</v>
@@ -928,19 +979,19 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
@@ -951,22 +1002,22 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>21</v>
@@ -974,22 +1025,22 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>21</v>
@@ -997,19 +1048,19 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
@@ -1020,19 +1071,19 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
@@ -1043,22 +1094,22 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>21</v>
@@ -1066,19 +1117,19 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
@@ -1089,7 +1140,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>66</v>
@@ -1098,10 +1149,10 @@
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>14</v>
@@ -1112,19 +1163,19 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
@@ -1135,22 +1186,22 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>21</v>
@@ -1158,22 +1209,22 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>21</v>
@@ -1181,19 +1232,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
@@ -1204,19 +1255,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
@@ -1227,22 +1278,22 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F34" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>21</v>
@@ -1250,19 +1301,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1273,7 +1324,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>83</v>
@@ -1282,13 +1333,13 @@
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>21</v>
@@ -1296,19 +1347,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1319,19 +1370,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1342,19 +1393,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1365,19 +1416,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1388,19 +1439,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1411,19 +1462,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1434,19 +1485,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1457,19 +1508,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1480,19 +1531,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1503,19 +1554,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1526,19 +1577,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1549,19 +1600,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1572,19 +1623,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1595,22 +1646,22 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>21</v>
@@ -1618,19 +1669,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1641,19 +1692,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1664,19 +1715,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1687,19 +1738,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>76</v>
+        <v>121</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1710,19 +1761,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1733,19 +1784,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1756,19 +1807,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1779,7 +1830,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>83</v>
@@ -1788,13 +1839,13 @@
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>21</v>
@@ -1802,19 +1853,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1825,19 +1876,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1848,19 +1899,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1871,19 +1922,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1894,19 +1945,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1917,19 +1968,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1940,19 +1991,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1963,19 +2014,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1986,19 +2037,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2009,19 +2060,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2032,19 +2083,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2055,19 +2106,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2078,19 +2129,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2101,53 +2152,53 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F72" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>116</v>
@@ -2156,7 +2207,7 @@
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>30</v>
+        <v>129</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>117</v>
@@ -2165,93 +2216,93 @@
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E75" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F75" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>120</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>120</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>30</v>
+        <v>129</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>120</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>30</v>
+        <v>129</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2262,24 +2313,208 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D79" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E79" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G79" s="2" t="s">
+      <c r="E82" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_001.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="150">
   <si>
     <t>Sezione</t>
   </si>
@@ -242,6 +242,9 @@
     <t>tipoAccordo</t>
   </si>
   <si>
+    <t>evento.separazione.assegnoMantenimento,=,true</t>
+  </si>
+  <si>
     <t>Parte in causa in giudizio pendente</t>
   </si>
   <si>
@@ -260,6 +263,15 @@
     <t>dataConfermaAccordo</t>
   </si>
   <si>
+    <t>evento.separazione.assegnoMantenimento,=,false</t>
+  </si>
+  <si>
+    <t>Dati assegno mantenimento/divorzile</t>
+  </si>
+  <si>
+    <t>datiAssegnoMantenimento</t>
+  </si>
+  <si>
     <t>Marito</t>
   </si>
   <si>
@@ -432,6 +444,12 @@
   </si>
   <si>
     <t>Dettagli evento</t>
+  </si>
+  <si>
+    <t>Assegno Mantentimento/Divorzile</t>
+  </si>
+  <si>
+    <t>assegnoMantenimento</t>
   </si>
   <si>
     <t>Presenza avvocato Marito</t>
@@ -502,7 +520,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H87"/>
+  <dimension ref="A1:H93"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1250,7 +1268,7 @@
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33">
@@ -1258,7 +1276,7 @@
         <v>73</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>15</v>
@@ -1267,13 +1285,13 @@
         <v>30</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34">
@@ -1281,7 +1299,7 @@
         <v>73</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
@@ -1290,13 +1308,13 @@
         <v>30</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35">
@@ -1304,7 +1322,7 @@
         <v>73</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>15</v>
@@ -1313,148 +1331,148 @@
         <v>30</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>21</v>
@@ -1462,19 +1480,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1485,19 +1503,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1508,19 +1526,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1531,19 +1549,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1554,19 +1572,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1577,19 +1595,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1600,19 +1618,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1623,19 +1641,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1646,19 +1664,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1669,19 +1687,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1692,19 +1710,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1715,19 +1733,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1738,19 +1756,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1761,19 +1779,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1784,19 +1802,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1807,19 +1825,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1830,22 +1848,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>21</v>
@@ -1853,19 +1871,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1876,19 +1894,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E60" s="2" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1899,19 +1917,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="C61" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D61" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1922,19 +1940,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1945,22 +1963,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>21</v>
@@ -1968,19 +1986,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1991,19 +2009,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2014,19 +2032,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2037,19 +2055,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2060,19 +2078,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2083,19 +2101,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2106,19 +2124,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2129,19 +2147,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2152,19 +2170,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2175,19 +2193,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2198,19 +2216,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2221,19 +2239,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2244,19 +2262,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2267,19 +2285,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2290,19 +2308,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2313,19 +2331,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2336,185 +2354,323 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>132</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>132</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="E82" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>132</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>85</v>
+        <v>129</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>137</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>137</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="E85" s="2" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>21</v>
+        <v>136</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E87" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F87" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G87" s="2" t="s">
+      <c r="B91" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_001.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="151">
   <si>
     <t>Sezione</t>
   </si>
@@ -149,7 +149,7 @@
     <t>nomeComune</t>
   </si>
   <si>
-    <t>Comune estero</t>
+    <t>Località estera</t>
   </si>
   <si>
     <t>comuneEstero</t>
@@ -215,24 +215,24 @@
     <t>Data atto</t>
   </si>
   <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
     <t>Tipo registro</t>
   </si>
   <si>
     <t>tipologia</t>
   </si>
   <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
-  </si>
-  <si>
     <t>Dettaglio accordo</t>
   </si>
   <si>
@@ -336,6 +336,9 @@
   </si>
   <si>
     <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
   </si>
   <si>
     <t>Nazionalita</t>
@@ -520,7 +523,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H93"/>
+  <dimension ref="A1:H95"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1187,7 +1190,7 @@
         <v>67</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>51</v>
@@ -1196,7 +1199,7 @@
         <v>68</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>21</v>
@@ -1233,7 +1236,7 @@
         <v>71</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>51</v>
@@ -1242,7 +1245,7 @@
         <v>72</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>21</v>
@@ -1690,16 +1693,16 @@
         <v>86</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>108</v>
+        <v>45</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>88</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1713,7 +1716,7 @@
         <v>86</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>15</v>
@@ -1722,7 +1725,7 @@
         <v>88</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1736,7 +1739,7 @@
         <v>86</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>15</v>
@@ -1745,7 +1748,7 @@
         <v>88</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1759,7 +1762,7 @@
         <v>86</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>15</v>
@@ -1768,7 +1771,7 @@
         <v>88</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1782,16 +1785,16 @@
         <v>86</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>88</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1805,7 +1808,7 @@
         <v>86</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
@@ -1814,7 +1817,7 @@
         <v>88</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1828,7 +1831,7 @@
         <v>86</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
@@ -1837,7 +1840,7 @@
         <v>88</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1851,7 +1854,7 @@
         <v>86</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
@@ -1860,7 +1863,7 @@
         <v>88</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1874,7 +1877,7 @@
         <v>86</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
@@ -1883,7 +1886,7 @@
         <v>88</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1897,16 +1900,16 @@
         <v>86</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>88</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1920,7 +1923,7 @@
         <v>86</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>15</v>
@@ -1929,7 +1932,7 @@
         <v>88</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1943,7 +1946,7 @@
         <v>86</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>15</v>
@@ -1952,7 +1955,7 @@
         <v>88</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1963,22 +1966,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F63" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>21</v>
@@ -1986,22 +1989,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>21</v>
@@ -2009,19 +2012,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2032,19 +2035,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2055,19 +2058,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2078,19 +2081,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2101,19 +2104,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2124,19 +2127,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2147,19 +2150,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2170,19 +2173,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2193,19 +2196,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2216,19 +2219,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2239,19 +2242,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2262,19 +2265,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2285,19 +2288,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2308,19 +2311,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2331,19 +2334,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2354,19 +2357,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2377,19 +2380,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2400,19 +2403,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2423,19 +2426,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2446,19 +2449,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2469,194 +2472,194 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="E85" s="2" t="s">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>136</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="E86" s="2" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>136</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G87" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="F89" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>137</v>
+        <v>87</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>30</v>
+        <v>141</v>
       </c>
       <c r="E90" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G90" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>30</v>
+        <v>141</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>21</v>
+        <v>142</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>21</v>
+        <v>142</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>15</v>
@@ -2665,12 +2668,58 @@
         <v>30</v>
       </c>
       <c r="E93" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F93" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G93" s="2" t="s">
+      <c r="C95" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_001.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="159">
   <si>
     <t>Sezione</t>
   </si>
@@ -411,6 +411,30 @@
   </si>
   <si>
     <t>flagFirmatario</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
   </si>
   <si>
     <t>Moglie</t>
@@ -523,7 +547,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H95"/>
+  <dimension ref="A1:H103"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1989,22 +2013,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E64" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F64" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>21</v>
@@ -2012,19 +2036,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2035,19 +2059,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>92</v>
+        <v>137</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2058,19 +2082,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2081,22 +2105,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>21</v>
@@ -2104,19 +2128,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2127,19 +2151,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2150,19 +2174,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2173,19 +2197,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2196,19 +2220,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2219,19 +2243,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2242,19 +2266,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2265,19 +2289,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2288,19 +2312,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2311,19 +2335,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2334,19 +2358,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2357,19 +2381,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2380,19 +2404,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2403,19 +2427,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2426,19 +2450,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2449,19 +2473,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2472,19 +2496,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2495,19 +2519,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2518,157 +2542,157 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>137</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>137</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>30</v>
+        <v>142</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>137</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>142</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>91</v>
+        <v>134</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>142</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>30</v>
+        <v>142</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>142</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>30</v>
+        <v>142</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2679,19 +2703,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>30</v>
+        <v>142</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2702,24 +2726,208 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="E95" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D95" s="2" t="s">
+      <c r="E98" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E95" s="2" t="s">
+      <c r="E100" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="F95" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G95" s="2" t="s">
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_001.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="161">
   <si>
     <t>Sezione</t>
   </si>
@@ -290,6 +290,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -341,13 +347,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -547,7 +553,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H103"/>
+  <dimension ref="A1:H105"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1536,7 +1542,7 @@
         <v>92</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>88</v>
@@ -1628,7 +1634,7 @@
         <v>100</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>88</v>
@@ -1717,7 +1723,7 @@
         <v>86</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
@@ -1726,7 +1732,7 @@
         <v>88</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1740,10 +1746,10 @@
         <v>86</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>88</v>
@@ -1835,7 +1841,7 @@
         <v>117</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>88</v>
@@ -1950,7 +1956,7 @@
         <v>127</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>88</v>
@@ -2019,7 +2025,7 @@
         <v>133</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>88</v>
@@ -2105,22 +2111,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F68" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>21</v>
@@ -2128,22 +2134,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>21</v>
@@ -2151,19 +2157,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2174,19 +2180,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2197,19 +2203,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2220,19 +2226,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2243,19 +2249,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2266,19 +2272,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2289,19 +2295,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2312,19 +2318,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2335,19 +2341,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2358,19 +2364,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2381,19 +2387,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2404,19 +2410,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2427,19 +2433,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2450,19 +2456,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2473,19 +2479,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2496,19 +2502,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2519,19 +2525,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2542,19 +2548,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2565,19 +2571,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2588,19 +2594,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2611,19 +2617,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2634,19 +2640,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2657,19 +2663,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2680,19 +2686,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2703,19 +2709,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2729,7 +2735,7 @@
         <v>143</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>87</v>
+        <v>139</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
@@ -2738,13 +2744,13 @@
         <v>144</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96">
@@ -2752,7 +2758,7 @@
         <v>143</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>90</v>
+        <v>141</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
@@ -2761,159 +2767,159 @@
         <v>144</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="E97" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E99" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="F99" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>146</v>
+        <v>87</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>30</v>
+        <v>151</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>151</v>
+        <v>89</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G101" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>21</v>
+        <v>152</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>15</v>
@@ -2922,12 +2928,58 @@
         <v>30</v>
       </c>
       <c r="E103" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="F103" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G103" s="2" t="s">
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_001.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="163">
   <si>
     <t>Sezione</t>
   </si>
@@ -357,6 +357,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -553,7 +559,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H105"/>
+  <dimension ref="A1:H107"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1818,7 +1824,7 @@
         <v>115</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>88</v>
@@ -1841,7 +1847,7 @@
         <v>117</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>88</v>
@@ -1979,7 +1985,7 @@
         <v>129</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>88</v>
@@ -2048,7 +2054,7 @@
         <v>135</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>88</v>
@@ -2134,22 +2140,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E69" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F69" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>21</v>
@@ -2157,22 +2163,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>21</v>
@@ -2180,19 +2186,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2203,19 +2209,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2226,19 +2232,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2249,19 +2255,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2272,19 +2278,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2295,19 +2301,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2318,19 +2324,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2341,19 +2347,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2364,19 +2370,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2387,19 +2393,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2410,19 +2416,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2433,19 +2439,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2456,19 +2462,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2479,19 +2485,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2502,19 +2508,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2525,19 +2531,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2548,19 +2554,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2571,19 +2577,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2594,19 +2600,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2617,19 +2623,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2640,19 +2646,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2663,19 +2669,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2686,19 +2692,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2709,19 +2715,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2732,19 +2738,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2755,19 +2761,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2781,7 +2787,7 @@
         <v>145</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>87</v>
+        <v>141</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
@@ -2790,13 +2796,13 @@
         <v>146</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>147</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98">
@@ -2804,7 +2810,7 @@
         <v>145</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>90</v>
+        <v>143</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
@@ -2813,159 +2819,159 @@
         <v>146</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>147</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="E99" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E101" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="F101" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>148</v>
+        <v>87</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>30</v>
+        <v>153</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>153</v>
+        <v>89</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G103" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>21</v>
+        <v>154</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>15</v>
@@ -2974,12 +2980,58 @@
         <v>30</v>
       </c>
       <c r="E105" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F105" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G105" s="2" t="s">
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_001.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="165">
   <si>
     <t>Sezione</t>
   </si>
@@ -357,6 +357,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -559,7 +565,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H107"/>
+  <dimension ref="A1:H109"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2008,7 +2014,7 @@
         <v>131</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>88</v>
@@ -2077,7 +2083,7 @@
         <v>137</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>88</v>
@@ -2163,22 +2169,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E70" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F70" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>21</v>
@@ -2186,22 +2192,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>21</v>
@@ -2209,19 +2215,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2232,19 +2238,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2255,19 +2261,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2278,19 +2284,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2301,19 +2307,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2324,19 +2330,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2347,19 +2353,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2370,19 +2376,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2393,19 +2399,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2416,19 +2422,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2439,19 +2445,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2462,19 +2468,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2485,19 +2491,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2508,19 +2514,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2531,19 +2537,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2554,19 +2560,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2577,19 +2583,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2600,19 +2606,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2623,19 +2629,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2646,19 +2652,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2669,19 +2675,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2692,19 +2698,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2715,19 +2721,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2738,19 +2744,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2761,19 +2767,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2784,19 +2790,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2807,19 +2813,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2833,7 +2839,7 @@
         <v>147</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>87</v>
+        <v>143</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
@@ -2842,13 +2848,13 @@
         <v>148</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>89</v>
+        <v>144</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>149</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100">
@@ -2856,7 +2862,7 @@
         <v>147</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>90</v>
+        <v>145</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
@@ -2865,159 +2871,159 @@
         <v>148</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>149</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="E101" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G101" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E103" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="F103" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>150</v>
+        <v>87</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>30</v>
+        <v>155</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G105" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>21</v>
+        <v>156</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>15</v>
@@ -3026,12 +3032,58 @@
         <v>30</v>
       </c>
       <c r="E107" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F107" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G107" s="2" t="s">
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_001.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_001.xlsx
@@ -1701,7 +1701,7 @@
         <v>105</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>21</v>
@@ -1747,7 +1747,7 @@
         <v>109</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>21</v>
@@ -1770,7 +1770,7 @@
         <v>110</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>21</v>
@@ -2391,7 +2391,7 @@
         <v>105</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>21</v>
@@ -2437,7 +2437,7 @@
         <v>109</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>21</v>
@@ -2460,7 +2460,7 @@
         <v>110</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>21</v>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_001.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="167">
   <si>
     <t>Sezione</t>
   </si>
@@ -225,6 +225,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -565,7 +571,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H109"/>
+  <dimension ref="A1:H110"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1278,7 +1284,7 @@
         <v>71</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>51</v>
@@ -1287,7 +1293,7 @@
         <v>72</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>21</v>
@@ -1295,33 +1301,33 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="C32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>15</v>
@@ -1330,24 +1336,24 @@
         <v>30</v>
       </c>
       <c r="E33" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>30</v>
@@ -1356,21 +1362,21 @@
         <v>80</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>30</v>
@@ -1379,18 +1385,18 @@
         <v>82</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>15</v>
@@ -1399,21 +1405,21 @@
         <v>30</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>15</v>
@@ -1422,24 +1428,24 @@
         <v>30</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>30</v>
@@ -1448,21 +1454,21 @@
         <v>80</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>30</v>
@@ -1471,18 +1477,18 @@
         <v>82</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>15</v>
@@ -1491,56 +1497,56 @@
         <v>30</v>
       </c>
       <c r="E40" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="C41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F41" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>91</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>21</v>
@@ -1548,16 +1554,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>93</v>
@@ -1571,16 +1577,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>95</v>
@@ -1594,7 +1600,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>96</v>
@@ -1603,7 +1609,7 @@
         <v>15</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>97</v>
@@ -1617,7 +1623,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>98</v>
@@ -1626,7 +1632,7 @@
         <v>15</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>99</v>
@@ -1640,7 +1646,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>100</v>
@@ -1649,7 +1655,7 @@
         <v>15</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>101</v>
@@ -1663,16 +1669,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>103</v>
@@ -1686,7 +1692,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>104</v>
@@ -1695,13 +1701,13 @@
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>105</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>21</v>
@@ -1709,7 +1715,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>106</v>
@@ -1718,13 +1724,13 @@
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>107</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>21</v>
@@ -1732,7 +1738,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>108</v>
@@ -1741,13 +1747,13 @@
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>109</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>21</v>
@@ -1755,19 +1761,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>14</v>
@@ -1778,22 +1784,22 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>112</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>21</v>
@@ -1801,7 +1807,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>113</v>
@@ -1810,7 +1816,7 @@
         <v>15</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>114</v>
@@ -1824,16 +1830,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>116</v>
@@ -1847,7 +1853,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>117</v>
@@ -1856,7 +1862,7 @@
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>118</v>
@@ -1870,7 +1876,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>119</v>
@@ -1879,7 +1885,7 @@
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>120</v>
@@ -1893,7 +1899,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>121</v>
@@ -1902,7 +1908,7 @@
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>122</v>
@@ -1916,7 +1922,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>123</v>
@@ -1925,7 +1931,7 @@
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>124</v>
@@ -1939,7 +1945,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>125</v>
@@ -1948,7 +1954,7 @@
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>126</v>
@@ -1962,7 +1968,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>127</v>
@@ -1971,7 +1977,7 @@
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>128</v>
@@ -1985,7 +1991,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>129</v>
@@ -1994,7 +2000,7 @@
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>130</v>
@@ -2008,7 +2014,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>131</v>
@@ -2017,7 +2023,7 @@
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>132</v>
@@ -2031,16 +2037,16 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>134</v>
@@ -2054,7 +2060,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>135</v>
@@ -2063,7 +2069,7 @@
         <v>15</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>136</v>
@@ -2077,7 +2083,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>137</v>
@@ -2086,7 +2092,7 @@
         <v>15</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>138</v>
@@ -2100,16 +2106,16 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>139</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>140</v>
@@ -2123,7 +2129,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>141</v>
@@ -2132,7 +2138,7 @@
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>142</v>
@@ -2146,7 +2152,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>143</v>
@@ -2155,7 +2161,7 @@
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>144</v>
@@ -2169,7 +2175,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>145</v>
@@ -2178,7 +2184,7 @@
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>146</v>
@@ -2192,22 +2198,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E71" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F71" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>21</v>
@@ -2215,22 +2221,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>91</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>21</v>
@@ -2238,16 +2244,16 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>93</v>
@@ -2261,16 +2267,16 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>95</v>
@@ -2284,7 +2290,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>96</v>
@@ -2293,7 +2299,7 @@
         <v>15</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>97</v>
@@ -2307,7 +2313,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>98</v>
@@ -2316,7 +2322,7 @@
         <v>15</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>99</v>
@@ -2330,7 +2336,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>100</v>
@@ -2339,7 +2345,7 @@
         <v>15</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>101</v>
@@ -2353,16 +2359,16 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>103</v>
@@ -2376,7 +2382,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>104</v>
@@ -2385,13 +2391,13 @@
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>105</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>21</v>
@@ -2399,7 +2405,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>106</v>
@@ -2408,13 +2414,13 @@
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>107</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>21</v>
@@ -2422,7 +2428,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>108</v>
@@ -2431,13 +2437,13 @@
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>109</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>21</v>
@@ -2445,19 +2451,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>14</v>
@@ -2468,22 +2474,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>112</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>21</v>
@@ -2491,7 +2497,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>113</v>
@@ -2500,7 +2506,7 @@
         <v>15</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>114</v>
@@ -2514,16 +2520,16 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>116</v>
@@ -2537,7 +2543,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>117</v>
@@ -2546,7 +2552,7 @@
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>118</v>
@@ -2560,7 +2566,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>119</v>
@@ -2569,7 +2575,7 @@
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>120</v>
@@ -2583,7 +2589,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>121</v>
@@ -2592,7 +2598,7 @@
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>122</v>
@@ -2606,7 +2612,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>123</v>
@@ -2615,7 +2621,7 @@
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>124</v>
@@ -2629,7 +2635,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>125</v>
@@ -2638,7 +2644,7 @@
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>126</v>
@@ -2652,7 +2658,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>127</v>
@@ -2661,7 +2667,7 @@
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>128</v>
@@ -2675,7 +2681,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>129</v>
@@ -2684,7 +2690,7 @@
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>130</v>
@@ -2698,7 +2704,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>131</v>
@@ -2707,7 +2713,7 @@
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>132</v>
@@ -2721,16 +2727,16 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>134</v>
@@ -2744,7 +2750,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>135</v>
@@ -2753,7 +2759,7 @@
         <v>15</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>136</v>
@@ -2767,7 +2773,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>137</v>
@@ -2776,7 +2782,7 @@
         <v>15</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>138</v>
@@ -2790,16 +2796,16 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>139</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>140</v>
@@ -2813,7 +2819,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>141</v>
@@ -2822,7 +2828,7 @@
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>142</v>
@@ -2836,7 +2842,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>143</v>
@@ -2845,7 +2851,7 @@
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>144</v>
@@ -2859,7 +2865,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>145</v>
@@ -2868,7 +2874,7 @@
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>146</v>
@@ -2885,7 +2891,7 @@
         <v>149</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>87</v>
+        <v>147</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
@@ -2894,27 +2900,27 @@
         <v>150</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>89</v>
+        <v>148</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>151</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>91</v>
@@ -2923,67 +2929,67 @@
         <v>14</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="E103" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G103" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E104" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F104" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>91</v>
@@ -2992,58 +2998,58 @@
         <v>14</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>152</v>
+        <v>92</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>30</v>
+        <v>157</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>157</v>
+        <v>93</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>21</v>
+        <v>158</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>161</v>
@@ -3066,7 +3072,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>163</v>
@@ -3084,6 +3090,29 @@
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_001.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="171">
   <si>
     <t>Sezione</t>
   </si>
@@ -306,6 +306,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -571,7 +583,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H110"/>
+  <dimension ref="A1:H114"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1629,7 +1641,7 @@
         <v>98</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>90</v>
@@ -1652,7 +1664,7 @@
         <v>100</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>90</v>
@@ -1698,7 +1710,7 @@
         <v>104</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>90</v>
@@ -1721,7 +1733,7 @@
         <v>106</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>90</v>
@@ -1730,7 +1742,7 @@
         <v>107</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>21</v>
@@ -1787,7 +1799,7 @@
         <v>88</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
@@ -1796,10 +1808,10 @@
         <v>90</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>21</v>
@@ -1810,19 +1822,19 @@
         <v>88</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>90</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>21</v>
@@ -1833,10 +1845,10 @@
         <v>88</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>90</v>
@@ -1845,7 +1857,7 @@
         <v>116</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>21</v>
@@ -1859,7 +1871,7 @@
         <v>117</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>90</v>
@@ -1882,7 +1894,7 @@
         <v>119</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>90</v>
@@ -2066,7 +2078,7 @@
         <v>135</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>90</v>
@@ -2089,7 +2101,7 @@
         <v>137</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>90</v>
@@ -2135,7 +2147,7 @@
         <v>141</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>90</v>
@@ -2158,7 +2170,7 @@
         <v>143</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>90</v>
@@ -2221,22 +2233,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E72" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="F72" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>21</v>
@@ -2244,19 +2256,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>149</v>
+        <v>88</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>92</v>
+        <v>151</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>93</v>
+        <v>152</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2267,22 +2279,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>21</v>
@@ -2290,19 +2302,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2313,19 +2325,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2336,19 +2348,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2359,19 +2371,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2382,19 +2394,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2405,22 +2417,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>21</v>
@@ -2428,19 +2440,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2451,22 +2463,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>21</v>
@@ -2474,22 +2486,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>21</v>
@@ -2497,22 +2509,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>21</v>
@@ -2520,19 +2532,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2543,22 +2555,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>21</v>
@@ -2566,22 +2578,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>119</v>
+        <v>45</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>21</v>
@@ -2589,19 +2601,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2612,19 +2624,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2635,19 +2647,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2658,19 +2670,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2681,19 +2693,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2704,19 +2716,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2727,19 +2739,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2750,19 +2762,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2773,19 +2785,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2796,19 +2808,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2819,19 +2831,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2842,19 +2854,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2865,19 +2877,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2888,19 +2900,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2911,163 +2923,163 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>89</v>
+        <v>145</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>153</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>92</v>
+        <v>147</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>93</v>
+        <v>148</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>153</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="E104" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>153</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>89</v>
+        <v>151</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>91</v>
+        <v>152</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>158</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="E106" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="E107" s="2" t="s">
-        <v>159</v>
+        <v>93</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>21</v>
+        <v>157</v>
       </c>
     </row>
     <row r="109">
@@ -3075,22 +3087,22 @@
         <v>160</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>30</v>
+        <v>161</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>164</v>
+        <v>91</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>21</v>
+        <v>162</v>
       </c>
     </row>
     <row r="110">
@@ -3098,21 +3110,113 @@
         <v>160</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D110" s="2" t="s">
+      <c r="C112" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E110" s="2" t="s">
+      <c r="E112" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F110" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G110" s="2" t="s">
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_001.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="171">
   <si>
     <t>Sezione</t>
   </si>
@@ -482,28 +482,28 @@
     <t>Avvocato Marito</t>
   </si>
   <si>
+    <t>Foro di appartenenza</t>
+  </si>
+  <si>
+    <t>foroAvvocatoConiuge1</t>
+  </si>
+  <si>
+    <t>evento.separazione.presenzaAvvocatoConiuge1,=,false</t>
+  </si>
+  <si>
     <t>evento.separazione.avvocatoConiuge1</t>
   </si>
   <si>
-    <t>evento.separazione.presenzaAvvocatoConiuge1,=,false</t>
-  </si>
-  <si>
-    <t>Foro di appartenenza</t>
-  </si>
-  <si>
-    <t>foroAvvocatoConiuge1</t>
-  </si>
-  <si>
     <t>Avvocato Moglie</t>
   </si>
   <si>
+    <t>foroAvvocatoConiuge2</t>
+  </si>
+  <si>
+    <t>evento.separazione.presenzaAvvocatoConiuge2,=,false</t>
+  </si>
+  <si>
     <t>evento.separazione.avvocatoConiuge2</t>
-  </si>
-  <si>
-    <t>evento.separazione.presenzaAvvocatoConiuge2,=,false</t>
-  </si>
-  <si>
-    <t>foroAvvocatoConiuge2</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -583,7 +583,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H114"/>
+  <dimension ref="A1:H166"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3018,22 +3018,22 @@
         <v>155</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>89</v>
+        <v>156</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>91</v>
+        <v>157</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="107">
@@ -3041,22 +3041,22 @@
         <v>155</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="108">
@@ -3064,159 +3064,1355 @@
         <v>155</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G108" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>165</v>
+        <v>100</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>30</v>
+        <v>159</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>166</v>
+        <v>101</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>21</v>
+        <v>158</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>167</v>
+        <v>102</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>30</v>
+        <v>159</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>168</v>
+        <v>103</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>21</v>
+        <v>158</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B164" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B166" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D114" s="2" t="s">
+      <c r="C166" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D166" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E114" s="2" t="s">
+      <c r="E166" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="F114" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G114" s="2" t="s">
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_001.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="181">
   <si>
     <t>Sezione</t>
   </si>
@@ -488,24 +488,42 @@
     <t>foroAvvocatoConiuge1</t>
   </si>
   <si>
-    <t>evento.separazione.presenzaAvvocatoConiuge1,=,false</t>
+    <t>evento.separazione.presenzaAvvocatoConiuge1,=,false || evento.separazione.avvocatoUnico,=,true</t>
   </si>
   <si>
     <t>evento.separazione.avvocatoConiuge1</t>
   </si>
   <si>
+    <t>Avvocato</t>
+  </si>
+  <si>
+    <t>evento.separazione.avvocatoUnico,=,false</t>
+  </si>
+  <si>
     <t>Avvocato Moglie</t>
   </si>
   <si>
     <t>foroAvvocatoConiuge2</t>
   </si>
   <si>
-    <t>evento.separazione.presenzaAvvocatoConiuge2,=,false</t>
+    <t>evento.separazione.presenzaAvvocatoConiuge2,=,false || evento.separazione.avvocatoUnico,=,true</t>
   </si>
   <si>
     <t>evento.separazione.avvocatoConiuge2</t>
   </si>
   <si>
+    <t>Interprete</t>
+  </si>
+  <si>
+    <t>evento.interprete</t>
+  </si>
+  <si>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
+  </si>
+  <si>
     <t>Dettagli evento</t>
   </si>
   <si>
@@ -513,6 +531,18 @@
   </si>
   <si>
     <t>assegnoMantenimento</t>
+  </si>
+  <si>
+    <t>Presenza interprete</t>
+  </si>
+  <si>
+    <t>ausilioInterprete</t>
+  </si>
+  <si>
+    <t>Avvocato unico per entrambe le parti</t>
+  </si>
+  <si>
+    <t>avvocatoUnico</t>
   </si>
   <si>
     <t>Presenza avvocato Marito</t>
@@ -583,7 +613,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H166"/>
+  <dimension ref="A1:H225"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -595,7 +625,7 @@
     <col min="4" max="4" width="41.06640625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="26.41796875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="50.27734375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="90.609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3688,19 +3718,19 @@
         <v>156</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E135" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G135" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="136">
@@ -3711,19 +3741,19 @@
         <v>89</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>91</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="137">
@@ -3734,19 +3764,19 @@
         <v>92</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>93</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="138">
@@ -3760,7 +3790,7 @@
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>95</v>
@@ -3769,7 +3799,7 @@
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="139">
@@ -3783,7 +3813,7 @@
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>97</v>
@@ -3792,7 +3822,7 @@
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="140">
@@ -3806,7 +3836,7 @@
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>99</v>
@@ -3815,7 +3845,7 @@
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="141">
@@ -3829,7 +3859,7 @@
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>101</v>
@@ -3838,7 +3868,7 @@
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="142">
@@ -3852,7 +3882,7 @@
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>103</v>
@@ -3861,7 +3891,7 @@
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="143">
@@ -3875,7 +3905,7 @@
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>105</v>
@@ -3884,7 +3914,7 @@
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="144">
@@ -3898,7 +3928,7 @@
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>107</v>
@@ -3907,7 +3937,7 @@
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="145">
@@ -3921,7 +3951,7 @@
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>109</v>
@@ -3930,7 +3960,7 @@
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="146">
@@ -3944,7 +3974,7 @@
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>111</v>
@@ -3953,7 +3983,7 @@
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="147">
@@ -3967,7 +3997,7 @@
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>113</v>
@@ -3976,7 +4006,7 @@
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="148">
@@ -3990,7 +4020,7 @@
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>115</v>
@@ -3999,7 +4029,7 @@
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="149">
@@ -4013,7 +4043,7 @@
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>116</v>
@@ -4022,7 +4052,7 @@
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="150">
@@ -4036,7 +4066,7 @@
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>118</v>
@@ -4045,7 +4075,7 @@
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="151">
@@ -4059,7 +4089,7 @@
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>120</v>
@@ -4068,7 +4098,7 @@
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="152">
@@ -4082,7 +4112,7 @@
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>122</v>
@@ -4091,7 +4121,7 @@
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="153">
@@ -4105,7 +4135,7 @@
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>124</v>
@@ -4114,7 +4144,7 @@
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="154">
@@ -4128,7 +4158,7 @@
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>126</v>
@@ -4137,7 +4167,7 @@
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="155">
@@ -4151,7 +4181,7 @@
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>128</v>
@@ -4160,7 +4190,7 @@
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="156">
@@ -4174,7 +4204,7 @@
         <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>130</v>
@@ -4183,7 +4213,7 @@
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="157">
@@ -4197,7 +4227,7 @@
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>132</v>
@@ -4206,7 +4236,7 @@
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="158">
@@ -4220,7 +4250,7 @@
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>134</v>
@@ -4229,7 +4259,7 @@
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="159">
@@ -4243,7 +4273,7 @@
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>136</v>
@@ -4252,7 +4282,7 @@
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="160">
@@ -4266,7 +4296,7 @@
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>138</v>
@@ -4275,7 +4305,7 @@
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="161">
@@ -4289,7 +4319,7 @@
         <v>15</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>140</v>
@@ -4298,7 +4328,7 @@
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="162">
@@ -4312,7 +4342,7 @@
         <v>15</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>142</v>
@@ -4321,7 +4351,7 @@
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="163">
@@ -4335,7 +4365,7 @@
         <v>15</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>144</v>
@@ -4344,75 +4374,1432 @@
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>21</v>
+        <v>164</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G165" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G165" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G166" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B166" s="2" t="s">
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G210" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G211" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G212" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G213" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G214" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G215" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G216" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G217" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G218" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G219" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B220" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C166" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D166" s="2" t="s">
+      <c r="C220" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G220" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D221" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E166" s="2" t="s">
+      <c r="E221" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F221" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G221" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="F166" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G166" s="2" t="s">
+      <c r="B222" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F222" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G222" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F223" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G223" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G224" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F225" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G225" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_001.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="182">
   <si>
     <t>Sezione</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>idAnsc</t>
+  </si>
+  <si>
+    <t>opzionale</t>
   </si>
   <si>
     <t>Provincia registrazione</t>
@@ -1085,7 +1088,7 @@
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21">
@@ -1093,7 +1096,7 @@
         <v>49</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>15</v>
@@ -1102,13 +1105,13 @@
         <v>51</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22">
@@ -1116,7 +1119,7 @@
         <v>49</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>15</v>
@@ -1125,13 +1128,13 @@
         <v>51</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23">
@@ -1139,7 +1142,7 @@
         <v>49</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>15</v>
@@ -1148,13 +1151,13 @@
         <v>51</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24">
@@ -1162,7 +1165,7 @@
         <v>49</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>15</v>
@@ -1171,13 +1174,13 @@
         <v>51</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25">
@@ -1185,7 +1188,7 @@
         <v>49</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>15</v>
@@ -1194,13 +1197,13 @@
         <v>51</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26">
@@ -1208,7 +1211,7 @@
         <v>49</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>15</v>
@@ -1223,7 +1226,7 @@
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27">
@@ -1231,7 +1234,7 @@
         <v>49</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>15</v>
@@ -1240,13 +1243,13 @@
         <v>51</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28">
@@ -1254,7 +1257,7 @@
         <v>49</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
@@ -1266,10 +1269,10 @@
         <v>23</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29">
@@ -1277,7 +1280,7 @@
         <v>49</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
@@ -1286,13 +1289,13 @@
         <v>51</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30">
@@ -1300,7 +1303,7 @@
         <v>49</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
@@ -1309,13 +1312,13 @@
         <v>51</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31">
@@ -1323,7 +1326,7 @@
         <v>49</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
@@ -1332,13 +1335,13 @@
         <v>51</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32">
@@ -1346,7 +1349,7 @@
         <v>49</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>15</v>
@@ -1355,21 +1358,21 @@
         <v>51</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>15</v>
@@ -1378,21 +1381,21 @@
         <v>30</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>15</v>
@@ -1401,21 +1404,21 @@
         <v>30</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
@@ -1424,21 +1427,21 @@
         <v>30</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>15</v>
@@ -1447,21 +1450,21 @@
         <v>30</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>15</v>
@@ -1470,21 +1473,21 @@
         <v>30</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>15</v>
@@ -1493,21 +1496,21 @@
         <v>30</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
@@ -1516,21 +1519,21 @@
         <v>30</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>15</v>
@@ -1539,21 +1542,21 @@
         <v>30</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>15</v>
@@ -1562,30 +1565,30 @@
         <v>30</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>14</v>
@@ -1596,19 +1599,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1619,19 +1622,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1642,19 +1645,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1665,19 +1668,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1688,19 +1691,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1711,19 +1714,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1734,19 +1737,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1757,19 +1760,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1780,19 +1783,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1803,19 +1806,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>14</v>
@@ -1826,19 +1829,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1849,19 +1852,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>14</v>
@@ -1872,7 +1875,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>45</v>
@@ -1881,10 +1884,10 @@
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>14</v>
@@ -1895,19 +1898,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1918,19 +1921,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1941,19 +1944,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1964,19 +1967,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1987,19 +1990,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -2010,19 +2013,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2033,19 +2036,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2056,19 +2059,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2079,19 +2082,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2102,19 +2105,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2125,19 +2128,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2148,19 +2151,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2171,19 +2174,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2194,19 +2197,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2217,19 +2220,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2240,19 +2243,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2263,19 +2266,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2286,19 +2289,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2309,19 +2312,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>14</v>
@@ -2332,19 +2335,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2355,19 +2358,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2378,19 +2381,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2401,19 +2404,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2424,19 +2427,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2447,19 +2450,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2470,19 +2473,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2493,19 +2496,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2516,19 +2519,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2539,19 +2542,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>14</v>
@@ -2562,19 +2565,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2585,19 +2588,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>14</v>
@@ -2608,7 +2611,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>45</v>
@@ -2617,10 +2620,10 @@
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>14</v>
@@ -2631,19 +2634,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2654,19 +2657,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2677,19 +2680,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2700,19 +2703,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2723,19 +2726,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2746,19 +2749,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2769,19 +2772,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2792,19 +2795,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2815,19 +2818,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2838,19 +2841,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2861,19 +2864,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2884,19 +2887,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2907,19 +2910,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2930,19 +2933,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2953,19 +2956,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2976,19 +2979,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2999,19 +3002,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3022,19 +3025,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3045,10 +3048,10 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
@@ -3057,317 +3060,317 @@
         <v>30</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>45</v>
@@ -3376,346 +3379,346 @@
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G125" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G127" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G129" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G130" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G131" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D132" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D133" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G133" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D134" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G134" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>15</v>
@@ -3724,317 +3727,317 @@
         <v>30</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D136" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B136" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="E136" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D137" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B137" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="E137" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B138" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="E138" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="E139" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B140" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="E140" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="E141" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B142" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="E142" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B143" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="E143" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B144" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="E144" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B145" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="E145" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B146" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="E146" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="E147" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B148" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="E148" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>45</v>
@@ -4043,346 +4046,346 @@
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B150" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="E150" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B151" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="E151" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B152" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="E152" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B153" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="E153" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B154" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="E154" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B155" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="E155" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B156" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="E156" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B157" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="E157" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B158" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="E158" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B159" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="E159" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B160" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="E160" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D161" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B161" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="E161" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D162" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B162" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="E162" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D163" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B163" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="E163" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
@@ -4391,317 +4394,317 @@
         <v>30</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F167" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G167" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F168" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G168" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F169" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G169" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F170" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G170" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F171" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G171" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F172" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G172" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F173" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G173" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F174" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G174" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F175" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G175" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F176" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G176" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F177" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G177" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>45</v>
@@ -4710,642 +4713,642 @@
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F178" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G178" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F179" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G179" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F180" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G180" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G181" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F181" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G181" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F182" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G182" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G183" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F184" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G184" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F185" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G185" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F186" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G186" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G187" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G188" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F188" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G188" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G189" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="E189" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F189" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G189" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D190" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G190" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F190" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G190" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D191" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G191" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F191" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G191" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D192" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G192" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F192" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G192" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>45</v>
@@ -5354,346 +5357,346 @@
         <v>9</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B220" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G220" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D220" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E220" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F220" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G220" s="2" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>15</v>
@@ -5702,7 +5705,7 @@
         <v>30</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>10</v>
@@ -5713,10 +5716,10 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>15</v>
@@ -5725,7 +5728,7 @@
         <v>19</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>10</v>
@@ -5736,10 +5739,10 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>15</v>
@@ -5748,7 +5751,7 @@
         <v>30</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>10</v>
@@ -5759,10 +5762,10 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>15</v>
@@ -5771,7 +5774,7 @@
         <v>30</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>10</v>
@@ -5782,10 +5785,10 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>15</v>
@@ -5794,7 +5797,7 @@
         <v>30</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>10</v>
